--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD824574-CAAA-4512-AB99-777B1BCCF0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E585C7-4870-40A0-8E31-6E75EB9C19B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,68 @@
       </rPr>
       <t>단계 클리어 시 개방</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive10</t>
+  </si>
+  <si>
+    <t>하단전 강화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2500000레벨 달성 시 개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoidDuplicationIdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +594,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -870,7 +935,7 @@
     <col min="14" max="14" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,8 +978,11 @@
       <c r="N1" t="s">
         <v>35</v>
       </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -948,8 +1016,11 @@
       <c r="M2">
         <v>-1</v>
       </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -983,8 +1054,11 @@
       <c r="M3">
         <v>-1</v>
       </c>
+      <c r="O3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1018,8 +1092,11 @@
       <c r="M4">
         <v>-1</v>
       </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1053,8 +1130,11 @@
       <c r="M5">
         <v>-1</v>
       </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1094,8 +1174,11 @@
       <c r="N6" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1135,8 +1218,11 @@
       <c r="N7" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1173,8 +1259,11 @@
       <c r="N8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="40.5">
+    <row r="9" spans="1:15" ht="27">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1214,8 +1303,11 @@
       <c r="N9" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="40.5">
+    <row r="10" spans="1:15" ht="27">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1255,8 +1347,11 @@
       <c r="N10" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="40.5">
+    <row r="11" spans="1:15" ht="27">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1295,6 +1390,53 @@
       </c>
       <c r="N11" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F12">
+        <v>1000000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E585C7-4870-40A0-8E31-6E75EB9C19B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED56E2FF-8319-4E98-B911-939356141588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1412,7 +1412,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F12">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED56E2FF-8319-4E98-B911-939356141588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB7673-B29E-4B3B-8E90-C7F14FABFF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,113 @@
   </si>
   <si>
     <t>avoidDuplicationIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단전 강화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하단전 강화2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2500000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개방</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1439,6 +1546,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F13">
+        <v>2500000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB7673-B29E-4B3B-8E90-C7F14FABFF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AE3E1-5254-4B7D-87C8-1959250E1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -175,6 +175,200 @@
     <t>환수의 시련에서 획득 가능</t>
   </si>
   <si>
+    <t>하단전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백귀의 힘 10000레벨 달성 및
+수련-혈자리-하단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계 클리어 시 개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하단전 패시브 2500000레벨 달성 및
+수련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈자리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계 클리어 시 개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중단전 패시브 2500000레벨 달성 및
+수련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈자리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계 클리어 시 개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive10</t>
+  </si>
+  <si>
+    <t>하단전 강화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -183,7 +377,170 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>백귀야행</t>
+      <t>상단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2500000레벨 달성 시 개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoidDuplicationIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단전 강화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하단전 강화2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2500000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전설1 노리개 획득 및
+백귀야행</t>
     </r>
     <r>
       <rPr>
@@ -222,362 +579,6 @@
         <charset val="129"/>
       </rPr>
       <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개방</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단전 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중단전 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단전 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>백귀의 힘 10000레벨 달성 및
-수련-혈자리-하단전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단계 클리어 시 개방</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하단전 패시브 2500000레벨 달성 및
-수련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혈자리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중단전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단계 클리어 시 개방</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중단전 패시브 2500000레벨 달성 및
-수련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혈자리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상단전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단계 클리어 시 개방</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passive10</t>
-  </si>
-  <si>
-    <t>하단전 강화2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상단전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2500000레벨 달성 시 개방</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avoidDuplicationIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중단전 강화2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passive11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하단전 강화2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2500000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>레벨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>달성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9A26D"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
     </r>
     <r>
       <rPr>
@@ -690,14 +691,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -724,9 +722,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,7 +762,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -870,7 +868,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1012,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,7 +1021,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1086,7 +1084,7 @@
         <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1329,7 +1327,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="27">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1363,8 +1361,8 @@
       <c r="M8">
         <v>-1</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>37</v>
+      <c r="N8" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="O8">
         <v>-1</v>
@@ -1390,7 +1388,7 @@
         <v>2500000</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1407,8 +1405,8 @@
       <c r="M9">
         <v>15</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>41</v>
+      <c r="N9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1434,7 +1432,7 @@
         <v>2500000</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1451,8 +1449,8 @@
       <c r="M10">
         <v>15</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>42</v>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1478,7 +1476,7 @@
         <v>2500000</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1495,8 +1493,8 @@
       <c r="M11">
         <v>15</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>43</v>
+      <c r="N11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1507,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1522,7 +1520,7 @@
         <v>2500000</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1539,8 +1537,8 @@
       <c r="M12">
         <v>15</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>46</v>
+      <c r="N12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1551,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1566,7 +1564,7 @@
         <v>2500000</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1583,8 +1581,8 @@
       <c r="M13">
         <v>15</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>50</v>
+      <c r="N13" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="O13">
         <v>1</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AE3E1-5254-4B7D-87C8-1959250E1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B19A3-7FBD-4629-9AF7-3AF8A5153FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +579,113 @@
         <charset val="129"/>
       </rPr>
       <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단전 강화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중단전 강화2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2500000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
     </r>
     <r>
       <rPr>
@@ -1018,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K17" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1588,6 +1695,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>59</v>
+      </c>
+      <c r="E14">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F14">
+        <v>2500000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
